--- a/frontend/src/resources/jbook-excel-sample.xlsx
+++ b/frontend/src/resources/jbook-excel-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreywang/Documents/repos/gamechanger-web-source/frontend/src/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usmanqadri/Documents/gamechanger-web-source/frontend/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A979217-F49A-1B41-940F-076453E32796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8F7DD-F559-544C-8115-1738B843628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42420" yWindow="1280" windowWidth="32000" windowHeight="19060" xr2:uid="{91155129-0587-1B4A-A8D0-D1CB89AEEB30}"/>
+    <workbookView xWindow="40960" yWindow="1280" windowWidth="32000" windowHeight="19060" xr2:uid="{91155129-0587-1B4A-A8D0-D1CB89AEEB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary Review Worksheet" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Service / Agency</t>
   </si>
   <si>
-    <t>Agency / Office</t>
-  </si>
-  <si>
     <t>PE / BLI</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>BA Number</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,34 +452,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/src/resources/jbook-excel-sample.xlsx
+++ b/frontend/src/resources/jbook-excel-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usmanqadri/Documents/gamechanger-web-source/frontend/src/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanchan/Projects/gamechanger-web/frontend/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8F7DD-F559-544C-8115-1738B843628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD388981-77E0-4348-9799-01A0609DE09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40960" yWindow="1280" windowWidth="32000" windowHeight="19060" xr2:uid="{91155129-0587-1B4A-A8D0-D1CB89AEEB30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Primary Reviewer</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Portfolio Name</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52895EAF-BBA6-5048-B092-D84C951CDB4B}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +450,7 @@
     <col min="1" max="11" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,6 +483,9 @@
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
